--- a/file/就職試験報告書.xlsx
+++ b/file/就職試験報告書.xlsx
@@ -1312,7 +1312,7 @@
       <c r="AM1" s="10" t="n"/>
       <c r="AN1" s="36" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="AO1" s="9" t="n"/>
@@ -1576,7 +1576,7 @@
       <c r="C7" s="45" t="n"/>
       <c r="D7" s="32" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2023-07-17</t>
         </is>
       </c>
       <c r="E7" s="33" t="n"/>
@@ -1735,7 +1735,7 @@
       <c r="D10" s="24" t="n"/>
       <c r="E10" s="58" t="inlineStr">
         <is>
-          <t>adobi株式会社</t>
+          <t>モリジョビ</t>
         </is>
       </c>
       <c r="F10" s="23" t="n"/>
@@ -2082,7 +2082,7 @@
       <c r="H15" s="79" t="n"/>
       <c r="I15" s="69" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2023-07-17</t>
         </is>
       </c>
       <c r="J15" s="14" t="n"/>
@@ -2103,7 +2103,7 @@
       <c r="U15" s="41" t="n"/>
       <c r="V15" s="71" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="W15" s="14" t="n"/>
@@ -2123,7 +2123,7 @@
       <c r="AG15" s="41" t="n"/>
       <c r="AH15" s="72" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AI15" s="14" t="n"/>
@@ -2891,8 +2891,8 @@
     <mergeCell ref="Q21:U21"/>
     <mergeCell ref="I15:P15"/>
     <mergeCell ref="A33:D37"/>
+    <mergeCell ref="E28:BA32"/>
     <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="E28:BA32"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="I27:P27"/>
     <mergeCell ref="A13:D13"/>
